--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,82 +46,103 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>1</t>
   </si>
   <si>
     <t>work</t>
@@ -130,72 +151,69 @@
     <t>price</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>way</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -217,73 +235,70 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>games</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>grandson</t>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>kids</t>
@@ -650,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,16 +755,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,16 +805,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8309859154929577</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.828125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
         <v>53</v>
@@ -887,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.828125</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6650485436893204</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.6312769010043041</v>
+        <v>0.6197991391678622</v>
       </c>
       <c r="L8">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M8">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6486486486486487</v>
+        <v>0.6875</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.5850622406639004</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L9">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6111111111111112</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.5426229508196722</v>
+        <v>0.5422477440525021</v>
       </c>
       <c r="L11">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M11">
         <v>662</v>
@@ -1158,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>558</v>
@@ -1169,7 +1184,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -1187,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.4759036144578313</v>
+        <v>0.4434250764525994</v>
       </c>
       <c r="L12">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="M12">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5966386554621849</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.4603174603174603</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5903614457831325</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.4403669724770642</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="L14">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5478260869565217</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C15">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.3916666666666667</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5308056872037915</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="D16">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,22 +1399,22 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.3286713286713286</v>
+        <v>0.2890625</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5272727272727272</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.3203125</v>
+        <v>0.285140562248996</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5079365079365079</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.3064516129032258</v>
+        <v>0.28</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5039370078740157</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.2777777777777778</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4842105263157895</v>
+        <v>0.4928909952606635</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.248</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.46875</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>0.2409638554216867</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>189</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4382022471910113</v>
+        <v>0.46875</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,31 +1702,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K22">
-        <v>0.2219298245614035</v>
+        <v>0.2372583479789104</v>
       </c>
       <c r="L22">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M22">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.405940594059406</v>
+        <v>0.4453125</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K23">
         <v>0.1835443037974684</v>
@@ -1769,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>0.1653645833333333</v>
+        <v>0.170391061452514</v>
       </c>
       <c r="L24">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="M24">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>0.98</v>
@@ -1811,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2911392405063291</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K25">
-        <v>0.160857908847185</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M25">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N25">
         <v>0.98</v>
@@ -1861,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.285</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>0.1480446927374302</v>
+        <v>0.1536458333333333</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="N26">
         <v>0.98</v>
@@ -1911,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2735042735042735</v>
+        <v>0.325</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,31 +1952,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>0.1137254901960784</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2717391304347826</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C28">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,31 +2002,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K28">
-        <v>0.1096774193548387</v>
+        <v>0.109717868338558</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N28">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O28">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2680412371134021</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2037,31 +2052,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K29">
-        <v>0.1005361930294906</v>
+        <v>0.1010452961672474</v>
       </c>
       <c r="L29">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>671</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,49 +2084,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2446043165467626</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K30">
-        <v>0.09937888198757763</v>
+        <v>0.09746328437917223</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>290</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,49 +2134,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2412698412698413</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C31">
         <v>76</v>
       </c>
       <c r="D31">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>0.08595988538681948</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>319</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2169,113 +2184,89 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2334293948126801</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K32">
-        <v>0.07130124777183601</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O32">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2328042328042328</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>145</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33">
-        <v>0.0625</v>
-      </c>
-      <c r="L33">
-        <v>43</v>
-      </c>
-      <c r="M33">
-        <v>60</v>
-      </c>
-      <c r="N33">
-        <v>0.72</v>
-      </c>
-      <c r="O33">
-        <v>0.28</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2324888226527571</v>
+        <v>0.2582159624413146</v>
       </c>
       <c r="C34">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0.02</v>
@@ -2287,47 +2278,47 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2289719626168224</v>
+        <v>0.2570579494799405</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2339,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1987179487179487</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0.03</v>
@@ -2365,99 +2356,99 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1822916666666667</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1814159292035398</v>
+        <v>0.2363112391930836</v>
       </c>
       <c r="C39">
         <v>82</v>
       </c>
       <c r="D39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1810699588477366</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.180327868852459</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2469,189 +2460,189 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1671388101983003</v>
+        <v>0.2057522123893805</v>
       </c>
       <c r="C42">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1639344262295082</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E43">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="F43">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1628787878787879</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F44">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1602209944751381</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C45">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E45">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1263537906137184</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="F46">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.124203821656051</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E47">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1176470588235294</v>
+        <v>0.1528925619834711</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>390</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2659,25 +2650,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1026252983293556</v>
+        <v>0.1432506887052342</v>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>376</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2685,25 +2676,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09987029831387809</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C50">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>694</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2711,25 +2702,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09768211920529801</v>
+        <v>0.1305732484076433</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E51">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F51">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>545</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2737,25 +2728,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.09761904761904762</v>
+        <v>0.1289592760180996</v>
       </c>
       <c r="C52">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D52">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2763,25 +2754,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08385093167701864</v>
+        <v>0.1227436823104693</v>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E53">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="F53">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>590</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2789,25 +2780,181 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05846774193548387</v>
+        <v>0.1118530884808013</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E54">
+        <v>0.12</v>
+      </c>
+      <c r="F54">
+        <v>0.88</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1037151702786378</v>
+      </c>
+      <c r="C55">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>0.12</v>
+      </c>
+      <c r="F55">
+        <v>0.88</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.09307875894988067</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
+      <c r="F56">
+        <v>0.8</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.08530805687203792</v>
+      </c>
+      <c r="C57">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <v>0.25</v>
+      </c>
+      <c r="F57">
+        <v>0.75</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.08247422680412371</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>82</v>
+      </c>
+      <c r="E58">
         <v>0.22</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>0.78</v>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>467</v>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.06882591093117409</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>0.23</v>
+      </c>
+      <c r="F59">
+        <v>0.77</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.06828193832599119</v>
+      </c>
+      <c r="C60">
+        <v>31</v>
+      </c>
+      <c r="D60">
+        <v>46</v>
+      </c>
+      <c r="E60">
+        <v>0.33</v>
+      </c>
+      <c r="F60">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
